--- a/biology/Botanique/Carl_Otto_Harz/Carl_Otto_Harz.xlsx
+++ b/biology/Botanique/Carl_Otto_Harz/Carl_Otto_Harz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Otto Harz est un botaniste prussien, né le 28 novembre 1842 à Gammertingen et mort le 5 décembre 1906 à Munich.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Berlin et est habilité en 1873 à l’École supérieure technologique de Munich. À partir de 1874, il enseigne à la Central-Tierarzneischule de Munich, en 1880, il est nommé professeur. Il se consacre principalement à l’étude des semences.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1885 : Landwirthschaftliche Samenkunde. Handbuch für Botaniker, Landwirthe, Gärtner, Drogisten, Hygieniker. Deux volumes. (Berlin).</t>
         </is>
